--- a/Results_AR2_40_20/AR2_40_model_statistics.xlsx
+++ b/Results_AR2_40_20/AR2_40_model_statistics.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>coefficient_Intercept</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lag_1</t>
+          <t>coefficient_Lag_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Lag_2</t>
+          <t>coefficient_Lag_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
